--- a/data/trans_orig/P14A21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5837FB03-7C5E-433A-87BD-E17460737C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9930CA-7775-4C56-8E00-126C530E2721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09CB8D8B-2BFC-4AB2-AB52-24362EDA4BA4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C820F7D3-7750-4EE4-85FC-C60FB40C58C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="248">
   <si>
     <t>Población que recibe medicación o terapia por migrañas en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>79,13%</t>
+    <t>79,43%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>80,36%</t>
+    <t>83,73%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>20,87%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>19,64%</t>
+    <t>16,27%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -132,13 +132,13 @@
     <t>92,1%</t>
   </si>
   <si>
-    <t>65,01%</t>
+    <t>67,79%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>75,16%</t>
+    <t>72,82%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -147,13 +147,13 @@
     <t>7,9%</t>
   </si>
   <si>
-    <t>34,99%</t>
+    <t>32,21%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>24,84%</t>
+    <t>27,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,55 +162,55 @@
     <t>62,14%</t>
   </si>
   <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -222,19 +222,19 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -243,19 +243,19 @@
     <t>30,37%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -279,490 +279,508 @@
     <t>88,63%</t>
   </si>
   <si>
-    <t>53,2%</t>
+    <t>53,46%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por migrañas en 2015 (Tasa respuesta: 3,41%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>25,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por migrañas en 2015 (Tasa respuesta: 3,41%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21521B09-A1BE-4DF7-B272-183736D559D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72213D8A-E7D5-4D9D-B1CF-7FF55084E3FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2523,10 +2541,10 @@
         <v>112</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H28" s="7">
         <v>156</v>
@@ -2535,13 +2553,13 @@
         <v>166636</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>189</v>
@@ -2550,13 +2568,13 @@
         <v>201082</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2589,13 @@
         <v>5875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -2586,13 +2604,13 @@
         <v>23121</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -2601,13 +2619,13 @@
         <v>28995</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2681,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D9F0DE-DF26-4374-8376-82936BB2575F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D623698E-929F-4320-A47B-8D68F7CA79F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2704,7 +2722,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2817,7 +2835,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2826,13 +2844,13 @@
         <v>16567</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2841,13 +2859,13 @@
         <v>16567</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2883,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>16</v>
@@ -2877,13 +2895,13 @@
         <v>9479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -2892,13 +2910,13 @@
         <v>12680</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2984,7 @@
         <v>1885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
@@ -2981,10 +2999,10 @@
         <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2996,10 +3014,10 @@
         <v>18673</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3017,7 +3035,7 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
@@ -3032,13 +3050,13 @@
         <v>1089</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3047,13 +3065,13 @@
         <v>2105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3136,10 +3154,10 @@
         <v>11784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -3151,10 +3169,10 @@
         <v>11784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3175,7 +3193,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3187,13 +3205,13 @@
         <v>920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3202,13 +3220,13 @@
         <v>1854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +3294,10 @@
         <v>6092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -3291,10 +3309,10 @@
         <v>27179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3306,13 +3324,13 @@
         <v>33271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3345,13 @@
         <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3342,13 +3360,13 @@
         <v>2121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3357,13 +3375,13 @@
         <v>3019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3464,7 +3482,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3503,7 +3521,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3518,7 +3536,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3604,10 @@
         <v>4703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3601,10 +3619,10 @@
         <v>14307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3616,13 +3634,13 @@
         <v>19010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3655,13 @@
         <v>1056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3652,13 +3670,13 @@
         <v>1918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3667,13 +3685,13 @@
         <v>2974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3759,13 @@
         <v>10167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3756,13 +3774,13 @@
         <v>26526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3771,13 +3789,13 @@
         <v>36693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3810,13 @@
         <v>4402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3807,13 +3825,13 @@
         <v>13630</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3822,13 +3840,13 @@
         <v>18032</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3914,13 @@
         <v>5624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3911,10 +3929,10 @@
         <v>31314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3926,13 +3944,13 @@
         <v>36939</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3965,13 @@
         <v>3145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3962,13 +3980,13 @@
         <v>1954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3977,13 +3995,13 @@
         <v>5099</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4069,13 @@
         <v>33222</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -4066,13 +4084,13 @@
         <v>163590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>181</v>
@@ -4081,13 +4099,13 @@
         <v>196811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4120,13 @@
         <v>14653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4117,13 +4135,13 @@
         <v>31109</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4132,13 +4150,13 @@
         <v>45763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4212,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9930CA-7775-4C56-8E00-126C530E2721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB211A8-785E-4BAF-AE7A-E4B2F0EC4833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C820F7D3-7750-4EE4-85FC-C60FB40C58C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4576C5BA-0F30-41E0-9E67-ACA0B1FBE92A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="244">
   <si>
     <t>Población que recibe medicación o terapia por migrañas en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>79,43%</t>
+    <t>82,93%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>83,73%</t>
+    <t>82,62%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>4,01%</t>
   </si>
   <si>
-    <t>20,57%</t>
+    <t>17,07%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>16,27%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -132,13 +132,13 @@
     <t>92,1%</t>
   </si>
   <si>
-    <t>67,79%</t>
+    <t>67,59%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>72,82%</t>
+    <t>75,97%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -147,13 +147,13 @@
     <t>7,9%</t>
   </si>
   <si>
-    <t>32,21%</t>
+    <t>32,41%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>27,18%</t>
+    <t>24,03%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,55 +162,55 @@
     <t>62,14%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -222,19 +222,19 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -243,19 +243,19 @@
     <t>30,37%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -279,49 +279,49 @@
     <t>88,63%</t>
   </si>
   <si>
-    <t>53,46%</t>
+    <t>53,72%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>46,54%</t>
+    <t>46,28%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -336,19 +336,19 @@
     <t>82,73%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>25,02%</t>
@@ -360,79 +360,79 @@
     <t>17,27%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por migrañas en 2015 (Tasa respuesta: 3,41%)</t>
+    <t>Población que recibe medicación o terapia por migrañas en 2016 (Tasa respuesta: 3,41%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -441,19 +441,19 @@
     <t>63,61%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>56,65%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -462,19 +462,19 @@
     <t>36,39%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>43,35%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>64,97%</t>
@@ -483,13 +483,13 @@
     <t>93,91%</t>
   </si>
   <si>
-    <t>69,45%</t>
+    <t>69,2%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>68,55%</t>
+    <t>64,85%</t>
   </si>
   <si>
     <t>35,03%</t>
@@ -498,79 +498,67 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>30,55%</t>
+    <t>30,8%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>31,45%</t>
+    <t>35,15%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -588,199 +576,199 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>22,92%</t>
+    <t>24,67%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>63,06%</t>
+    <t>68,56%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>77,08%</t>
+    <t>75,33%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>36,94%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
   </si>
   <si>
     <t>69,78%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>66,06%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>30,22%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>78,71%</t>
+    <t>81,44%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>21,29%</t>
+    <t>18,56%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72213D8A-E7D5-4D9D-B1CF-7FF55084E3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A319CAE6-95AC-4D74-BF70-B4E298B1C5CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2705,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D623698E-929F-4320-A47B-8D68F7CA79F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9311FF9-357C-412A-A771-294C49DEFFD8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3154,10 +3142,10 @@
         <v>11784</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -3169,10 +3157,10 @@
         <v>11784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3193,7 +3181,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3205,13 +3193,13 @@
         <v>920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3220,13 +3208,13 @@
         <v>1854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,10 +3282,10 @@
         <v>6092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -3309,10 +3297,10 @@
         <v>27179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3324,13 +3312,13 @@
         <v>33271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3333,13 @@
         <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3360,13 +3348,13 @@
         <v>2121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3375,13 +3363,13 @@
         <v>3019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3482,7 +3470,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3521,7 +3509,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3536,7 +3524,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,10 +3592,10 @@
         <v>4703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3619,10 +3607,10 @@
         <v>14307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3634,13 +3622,13 @@
         <v>19010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3643,13 @@
         <v>1056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3670,13 +3658,13 @@
         <v>1918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3685,13 +3673,13 @@
         <v>2974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3747,13 @@
         <v>10167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3774,13 +3762,13 @@
         <v>26526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3789,13 +3777,13 @@
         <v>36693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3798,13 @@
         <v>4402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3825,13 +3813,13 @@
         <v>13630</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3840,13 +3828,13 @@
         <v>18032</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3902,13 @@
         <v>5624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3929,10 +3917,10 @@
         <v>31314</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3944,13 +3932,13 @@
         <v>36939</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3953,13 @@
         <v>3145</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3980,13 +3968,13 @@
         <v>1954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3995,13 +3983,13 @@
         <v>5099</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4057,13 @@
         <v>33222</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H28" s="7">
         <v>149</v>
@@ -4084,13 +4072,13 @@
         <v>163590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M28" s="7">
         <v>181</v>
@@ -4099,13 +4087,13 @@
         <v>196811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4108,13 @@
         <v>14653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4135,13 +4123,13 @@
         <v>31109</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -4150,13 +4138,13 @@
         <v>45763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
